--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794239</v>
+        <v>3067357.547720952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216904</v>
+        <v>8662070.799216902</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>213.6046773092915</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>180.4143915910532</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>44.67157853973517</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.4098565753246</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>150.5509630666493</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>184.6902077947043</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893656</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763407</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>104.7777418077832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>64.80049431059781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1435.441956461044</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.479439520632</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1066.479439520632</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>680.6911869223877</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>269.7052821327802</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2283.706154680004</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2029.944369318095</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1698.881481974524</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1346.11282670441</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1346.11282670441</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.11282670441</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035243</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="D8" t="n">
-        <v>504.8469194967738</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0586668985295</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>112.113166149326</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>99.06578842615755</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>99.06578842615755</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1704.011317530186</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2308.699956879207</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1977.637069535637</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1624.868414265522</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.6734330002731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>867.3218978305129</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3218978305129</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,7 +6546,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
         <v>1186.520756890282</v>
@@ -6555,10 +6555,10 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>149.9775162190718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
-        <v>306.1979795936941</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-7.955339370490157e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187166</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>187.3371490132302</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.491441104</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682704</v>
+        <v>5677.536566682688</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682692</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682765</v>
+        <v>5677.536566682693</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682687</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682738</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682724</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682786</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682809</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563459</v>
+        <v>-184863.8683563461</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581985</v>
+        <v>405104.0108581986</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.2047644028</v>
+        <v>249300.2047644031</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.1480348905</v>
+        <v>-191812.8859603266</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459162</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.543345916</v>
+        <v>579239.80542048</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459161</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533226</v>
+        <v>402816.5862278872</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.5433459161</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.543345916</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.0326378577</v>
+        <v>455031.2947124214</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459156</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204806</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.543345916</v>
+        <v>579239.8054204803</v>
       </c>
     </row>
   </sheetData>
@@ -26799,16 +26799,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>200.1794927115035</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>36.03392876660462</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.82446235415513</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>21.24303055281555</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>101.5866802571787</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>41.0194475943328</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>307.465452939363</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>291.8940795642898</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>321.865420579637</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
-        <v>467.3215277439574</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250327</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
